--- a/CoA SIKANGMAS.xlsx
+++ b/CoA SIKANGMAS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="9120" windowHeight="8670"/>
+    <workbookView windowWidth="9120" windowHeight="7455"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="108">
   <si>
     <t>Chart of Account</t>
   </si>
@@ -331,13 +331,10 @@
     <t>Penerimaan Peminjaman</t>
   </si>
   <si>
-    <t>Bank</t>
+    <t>Setor</t>
   </si>
   <si>
     <t>1.2</t>
-  </si>
-  <si>
-    <t>Setor</t>
   </si>
   <si>
     <t>Tarik</t>
@@ -353,7 +350,7 @@
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -391,40 +388,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -437,45 +421,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -497,9 +443,62 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -512,9 +511,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -527,16 +525,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -551,19 +541,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -575,25 +643,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -605,133 +709,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -838,46 +828,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -911,23 +877,47 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -936,152 +926,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="13" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="15" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="11" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="13" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="13" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="11" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="14" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1152,28 +1142,19 @@
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1496,8 +1477,8 @@
   <sheetPr/>
   <dimension ref="A1:G83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="E76" sqref="D75:E76"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -2523,55 +2504,59 @@
       <c r="A75" s="23">
         <v>17</v>
       </c>
-      <c r="B75" s="24" t="s">
+      <c r="B75" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="C75" s="25" t="s">
+      <c r="C75" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="D75" s="26" t="s">
+      <c r="D75" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="E75" s="24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="26">
+        <v>18</v>
+      </c>
+      <c r="B76" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="E75" s="30" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" s="27"/>
-      <c r="B76" s="28"/>
-      <c r="C76" s="25" t="s">
+      <c r="C76" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="D76" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="E76" s="30" t="s">
+      <c r="D76" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="E76" s="24" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="77" spans="4:4">
-      <c r="D77" s="29"/>
+      <c r="D77" s="27"/>
     </row>
     <row r="78" spans="4:4">
-      <c r="D78" s="29"/>
+      <c r="D78" s="27"/>
     </row>
     <row r="79" spans="4:4">
-      <c r="D79" s="29"/>
+      <c r="D79" s="27"/>
     </row>
     <row r="80" spans="4:4">
-      <c r="D80" s="29"/>
+      <c r="D80" s="27"/>
     </row>
     <row r="81" spans="4:4">
-      <c r="D81" s="29"/>
+      <c r="D81" s="27"/>
     </row>
     <row r="82" spans="4:4">
-      <c r="D82" s="29"/>
+      <c r="D82" s="27"/>
     </row>
     <row r="83" spans="4:4">
-      <c r="D83" s="29"/>
+      <c r="D83" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="33">
+  <mergeCells count="31">
     <mergeCell ref="C12:E12"/>
     <mergeCell ref="C16:E16"/>
     <mergeCell ref="A4:A6"/>
@@ -2588,7 +2573,6 @@
     <mergeCell ref="A59:A68"/>
     <mergeCell ref="A70:A72"/>
     <mergeCell ref="A73:A74"/>
-    <mergeCell ref="A75:A76"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="B7:B11"/>
     <mergeCell ref="B12:B21"/>
@@ -2603,7 +2587,6 @@
     <mergeCell ref="B59:B68"/>
     <mergeCell ref="B70:B72"/>
     <mergeCell ref="B73:B74"/>
-    <mergeCell ref="B75:B76"/>
     <mergeCell ref="A1:E2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/CoA SIKANGMAS.xlsx
+++ b/CoA SIKANGMAS.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="110">
   <si>
     <t>Chart of Account</t>
   </si>
@@ -338,6 +338,12 @@
   </si>
   <si>
     <t>Tarik</t>
+  </si>
+  <si>
+    <t>Hibah</t>
+  </si>
+  <si>
+    <t>Implementasi dimana?</t>
   </si>
 </sst>
 </file>
@@ -345,12 +351,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -388,8 +394,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -405,7 +433,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -413,15 +441,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -436,10 +463,26 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -451,16 +494,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -474,23 +516,22 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -503,34 +544,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -541,19 +554,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -565,163 +608,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -833,6 +846,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -859,6 +896,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -877,45 +929,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -926,121 +939,121 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="14" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="13" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="13" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="10" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1049,29 +1062,29 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="13" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="14" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1151,6 +1164,24 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
@@ -1478,7 +1509,7 @@
   <dimension ref="A1:G83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D74" sqref="D74"/>
+      <selection activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -2534,29 +2565,95 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="4:4">
-      <c r="D77" s="27"/>
-    </row>
-    <row r="78" spans="4:4">
-      <c r="D78" s="27"/>
-    </row>
-    <row r="79" spans="4:4">
-      <c r="D79" s="27"/>
-    </row>
-    <row r="80" spans="4:4">
-      <c r="D80" s="27"/>
-    </row>
-    <row r="81" spans="4:4">
-      <c r="D81" s="27"/>
-    </row>
-    <row r="82" spans="4:4">
-      <c r="D82" s="27"/>
+    <row r="77" spans="1:5">
+      <c r="A77" s="27">
+        <v>19</v>
+      </c>
+      <c r="B77" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="C77" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="D77" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="E77" s="29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="27"/>
+      <c r="B78" s="31"/>
+      <c r="C78" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="D78" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="E78" s="29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="27"/>
+      <c r="B79" s="31"/>
+      <c r="C79" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="D79" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="E79" s="29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="27"/>
+      <c r="B80" s="31"/>
+      <c r="C80" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D80" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="E80" s="29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="27"/>
+      <c r="B81" s="31"/>
+      <c r="C81" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="D81" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="E81" s="29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="27"/>
+      <c r="B82" s="31"/>
+      <c r="C82" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="D82" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="E82" s="29" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="83" spans="4:4">
-      <c r="D83" s="27"/>
+      <c r="D83" s="33" t="s">
+        <v>109</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="31">
+  <mergeCells count="33">
     <mergeCell ref="C12:E12"/>
     <mergeCell ref="C16:E16"/>
     <mergeCell ref="A4:A6"/>
@@ -2573,6 +2670,7 @@
     <mergeCell ref="A59:A68"/>
     <mergeCell ref="A70:A72"/>
     <mergeCell ref="A73:A74"/>
+    <mergeCell ref="A77:A82"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="B7:B11"/>
     <mergeCell ref="B12:B21"/>
@@ -2587,6 +2685,7 @@
     <mergeCell ref="B59:B68"/>
     <mergeCell ref="B70:B72"/>
     <mergeCell ref="B73:B74"/>
+    <mergeCell ref="B77:B82"/>
     <mergeCell ref="A1:E2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/CoA SIKANGMAS.xlsx
+++ b/CoA SIKANGMAS.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\laravelVUESPA\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26A1E85-443B-4BFE-A422-6FC96CFB04A2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="9120" windowHeight="7455"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -349,14 +355,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -400,346 +400,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="16">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -749,51 +419,51 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -801,14 +471,14 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -816,433 +486,144 @@
       <left/>
       <right/>
       <top style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color auto="true"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="14" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="10" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="13" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1366,7 +747,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1390,9 +771,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1416,7 +797,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -1469,7 +850,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1494,1074 +875,1074 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D83" sqref="D83"/>
+    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E74" sqref="E74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.625" customWidth="true"/>
-    <col min="2" max="2" width="24.625" customWidth="true"/>
-    <col min="3" max="3" width="7" customWidth="true"/>
-    <col min="4" max="4" width="55.25" customWidth="true"/>
+    <col min="1" max="1" width="3.5703125" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="3" max="3" width="7" customWidth="1"/>
+    <col min="4" max="4" width="55.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="true" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" customHeight="true" spans="1:5">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" ht="28.5" spans="1:7">
-      <c r="A3" s="2" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+    </row>
+    <row r="2" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+    </row>
+    <row r="3" spans="1:7" ht="30">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="8" t="s">
         <v>5</v>
       </c>
       <c r="G3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="4">
+    <row r="4" spans="1:7">
+      <c r="A4" s="24">
         <v>1</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="6" t="s">
+      <c r="E4" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="25"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="6" t="s">
+      <c r="E5" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="26"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="4">
+      <c r="E6" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="24">
         <v>2</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="6" t="s">
+      <c r="E7" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="25"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="6" t="s">
+      <c r="E8" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="25"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="6" t="s">
+      <c r="E9" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="25"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="6" t="s">
+      <c r="E10" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="26"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="4">
+      <c r="E11" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="24">
         <v>3</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="21"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="8"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="6" t="s">
+      <c r="D12" s="19"/>
+      <c r="E12" s="20"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="25"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="14"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="8"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="6" t="s">
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="25"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="8"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="6" t="s">
+      <c r="E14" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="25"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" ht="27" customHeight="true" spans="1:5">
-      <c r="A16" s="8"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="15" t="s">
+      <c r="E15" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="27" customHeight="1">
+      <c r="A16" s="25"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="23"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="8"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="6" t="s">
+      <c r="A17" s="25"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="E17" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="8"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="6" t="s">
+      <c r="A18" s="25"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="20" t="s">
+      <c r="E18" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="8"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="6" t="s">
+      <c r="A19" s="25"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="20" t="s">
+      <c r="E19" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="8"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="6" t="s">
+      <c r="A20" s="25"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E20" s="20" t="s">
+      <c r="E20" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="6" t="s">
+      <c r="A21" s="26"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E21" s="20" t="s">
+      <c r="E21" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="4">
+      <c r="A22" s="24">
         <v>4</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E22" s="20" t="s">
+      <c r="E22" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="6" t="s">
+      <c r="A23" s="25"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E23" s="20" t="s">
+      <c r="E23" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="6" t="s">
+      <c r="A24" s="25"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E24" s="20" t="s">
+      <c r="E24" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="6" t="s">
+      <c r="A25" s="25"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E25" s="20" t="s">
+      <c r="E25" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="6" t="s">
+      <c r="A26" s="25"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E26" s="20" t="s">
+      <c r="E26" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="4">
+      <c r="A27" s="24">
         <v>5</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E27" s="20" t="s">
+      <c r="E27" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="8"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="6" t="s">
+      <c r="A28" s="25"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E28" s="20" t="s">
+      <c r="E28" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="8"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="6" t="s">
+      <c r="A29" s="25"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E29" s="20" t="s">
+      <c r="E29" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="10"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="6" t="s">
+      <c r="A30" s="26"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E30" s="20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" ht="28.5" spans="1:5">
-      <c r="A31" s="6">
+      <c r="E30" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="30">
+      <c r="A31" s="3">
         <v>6</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C31" s="6"/>
-      <c r="D31" s="17" t="s">
+      <c r="C31" s="3"/>
+      <c r="D31" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E31" s="20" t="s">
+      <c r="E31" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="4">
+      <c r="A32" s="24">
         <v>7</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E32" s="20" t="s">
+      <c r="E32" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="8"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="6" t="s">
+      <c r="A33" s="25"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E33" s="20" t="s">
+      <c r="E33" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="10"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="6" t="s">
+      <c r="A34" s="26"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E34" s="20" t="s">
+      <c r="E34" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="4">
+      <c r="A35" s="24">
         <v>8</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E35" s="20" t="s">
+      <c r="E35" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="10"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="6" t="s">
+      <c r="A36" s="26"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E36" s="20" t="s">
+      <c r="E36" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="4">
+      <c r="A37" s="24">
         <v>9</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E37" s="20" t="s">
+      <c r="E37" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="8"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="6" t="s">
+      <c r="A38" s="25"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D38" s="18" t="s">
+      <c r="D38" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E38" s="20" t="s">
+      <c r="E38" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="8"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="6" t="s">
+      <c r="A39" s="25"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D39" s="18" t="s">
+      <c r="D39" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E39" s="20" t="s">
+      <c r="E39" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="8"/>
-      <c r="B40" s="9"/>
-      <c r="C40" s="6" t="s">
+      <c r="A40" s="25"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E40" s="20" t="s">
+      <c r="E40" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="8"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="6" t="s">
+      <c r="A41" s="25"/>
+      <c r="B41" s="29"/>
+      <c r="C41" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D41" s="18" t="s">
+      <c r="D41" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E41" s="20" t="s">
+      <c r="E41" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="10"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="6" t="s">
+      <c r="A42" s="26"/>
+      <c r="B42" s="30"/>
+      <c r="C42" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D42" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E42" s="20" t="s">
+      <c r="E42" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="4">
-        <v>10</v>
-      </c>
-      <c r="B43" s="5" t="s">
+      <c r="A43" s="24">
+        <v>10</v>
+      </c>
+      <c r="B43" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C43" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="D43" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E43" s="20" t="s">
+      <c r="E43" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="8"/>
-      <c r="B44" s="9"/>
-      <c r="C44" s="6" t="s">
+      <c r="A44" s="25"/>
+      <c r="B44" s="29"/>
+      <c r="C44" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D44" s="18" t="s">
+      <c r="D44" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E44" s="20" t="s">
+      <c r="E44" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="8"/>
-      <c r="B45" s="9"/>
-      <c r="C45" s="6" t="s">
+      <c r="A45" s="25"/>
+      <c r="B45" s="29"/>
+      <c r="C45" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="18" t="s">
+      <c r="D45" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E45" s="20" t="s">
+      <c r="E45" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="8"/>
-      <c r="B46" s="9"/>
-      <c r="C46" s="6" t="s">
+      <c r="A46" s="25"/>
+      <c r="B46" s="29"/>
+      <c r="C46" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="D46" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E46" s="20" t="s">
+      <c r="E46" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="8"/>
-      <c r="B47" s="9"/>
-      <c r="C47" s="6" t="s">
+      <c r="A47" s="25"/>
+      <c r="B47" s="29"/>
+      <c r="C47" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D47" s="18" t="s">
+      <c r="D47" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E47" s="20" t="s">
+      <c r="E47" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="10"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="6" t="s">
+      <c r="A48" s="26"/>
+      <c r="B48" s="30"/>
+      <c r="C48" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D48" s="7" t="s">
+      <c r="D48" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E48" s="20" t="s">
+      <c r="E48" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="4">
+      <c r="A49" s="24">
         <v>11</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="C49" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D49" s="7" t="s">
+      <c r="D49" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E49" s="20" t="s">
+      <c r="E49" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="8"/>
-      <c r="B50" s="9"/>
-      <c r="C50" s="6" t="s">
+      <c r="A50" s="25"/>
+      <c r="B50" s="29"/>
+      <c r="C50" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D50" s="18" t="s">
+      <c r="D50" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E50" s="20" t="s">
+      <c r="E50" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="8"/>
-      <c r="B51" s="9"/>
-      <c r="C51" s="6" t="s">
+      <c r="A51" s="25"/>
+      <c r="B51" s="29"/>
+      <c r="C51" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D51" s="18" t="s">
+      <c r="D51" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E51" s="20" t="s">
+      <c r="E51" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="8"/>
-      <c r="B52" s="9"/>
-      <c r="C52" s="6" t="s">
+      <c r="A52" s="25"/>
+      <c r="B52" s="29"/>
+      <c r="C52" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D52" s="7" t="s">
+      <c r="D52" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E52" s="20" t="s">
+      <c r="E52" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="8"/>
-      <c r="B53" s="9"/>
-      <c r="C53" s="6" t="s">
+      <c r="A53" s="25"/>
+      <c r="B53" s="29"/>
+      <c r="C53" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D53" s="18" t="s">
+      <c r="D53" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E53" s="20" t="s">
+      <c r="E53" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="10"/>
-      <c r="B54" s="11"/>
-      <c r="C54" s="6" t="s">
+      <c r="A54" s="26"/>
+      <c r="B54" s="30"/>
+      <c r="C54" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D54" s="7" t="s">
+      <c r="D54" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E54" s="20" t="s">
+      <c r="E54" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="4">
+      <c r="A55" s="24">
         <v>12</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="C55" s="6" t="s">
+      <c r="C55" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D55" s="7" t="s">
+      <c r="D55" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E55" s="20" t="s">
+      <c r="E55" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="8"/>
-      <c r="B56" s="9"/>
-      <c r="C56" s="6" t="s">
+      <c r="A56" s="25"/>
+      <c r="B56" s="29"/>
+      <c r="C56" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D56" s="18" t="s">
+      <c r="D56" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E56" s="20" t="s">
+      <c r="E56" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="8"/>
-      <c r="B57" s="9"/>
-      <c r="C57" s="6" t="s">
+      <c r="A57" s="25"/>
+      <c r="B57" s="29"/>
+      <c r="C57" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D57" s="7" t="s">
+      <c r="D57" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E57" s="20" t="s">
+      <c r="E57" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="10"/>
-      <c r="B58" s="11"/>
-      <c r="C58" s="6" t="s">
+      <c r="A58" s="26"/>
+      <c r="B58" s="30"/>
+      <c r="C58" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D58" s="7" t="s">
+      <c r="D58" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E58" s="20" t="s">
+      <c r="E58" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="4">
+      <c r="A59" s="24">
         <v>13</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B59" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="C59" s="6" t="s">
+      <c r="C59" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D59" s="7" t="s">
+      <c r="D59" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E59" s="20" t="s">
+      <c r="E59" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="8"/>
-      <c r="B60" s="9"/>
-      <c r="C60" s="6" t="s">
+      <c r="A60" s="25"/>
+      <c r="B60" s="29"/>
+      <c r="C60" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D60" s="7" t="s">
+      <c r="D60" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E60" s="20" t="s">
+      <c r="E60" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="8"/>
-      <c r="B61" s="9"/>
-      <c r="C61" s="6" t="s">
+      <c r="A61" s="25"/>
+      <c r="B61" s="29"/>
+      <c r="C61" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D61" s="7" t="s">
+      <c r="D61" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E61" s="20" t="s">
+      <c r="E61" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="8"/>
-      <c r="B62" s="9"/>
-      <c r="C62" s="6" t="s">
+      <c r="A62" s="25"/>
+      <c r="B62" s="29"/>
+      <c r="C62" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D62" s="7" t="s">
+      <c r="D62" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="E62" s="20" t="s">
+      <c r="E62" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="8"/>
-      <c r="B63" s="9"/>
-      <c r="C63" s="6" t="s">
+      <c r="A63" s="25"/>
+      <c r="B63" s="29"/>
+      <c r="C63" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D63" s="7" t="s">
+      <c r="D63" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E63" s="20" t="s">
+      <c r="E63" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="8"/>
-      <c r="B64" s="9"/>
-      <c r="C64" s="6" t="s">
+      <c r="A64" s="25"/>
+      <c r="B64" s="29"/>
+      <c r="C64" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D64" s="7" t="s">
+      <c r="D64" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E64" s="20" t="s">
+      <c r="E64" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="8"/>
-      <c r="B65" s="9"/>
-      <c r="C65" s="6" t="s">
+      <c r="A65" s="25"/>
+      <c r="B65" s="29"/>
+      <c r="C65" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D65" s="7" t="s">
+      <c r="D65" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E65" s="20" t="s">
+      <c r="E65" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="8"/>
-      <c r="B66" s="9"/>
-      <c r="C66" s="6" t="s">
+      <c r="A66" s="25"/>
+      <c r="B66" s="29"/>
+      <c r="C66" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D66" s="7" t="s">
+      <c r="D66" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E66" s="20" t="s">
+      <c r="E66" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="8"/>
-      <c r="B67" s="9"/>
-      <c r="C67" s="6" t="s">
+      <c r="A67" s="25"/>
+      <c r="B67" s="29"/>
+      <c r="C67" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D67" s="7" t="s">
+      <c r="D67" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E67" s="20" t="s">
+      <c r="E67" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="10"/>
-      <c r="B68" s="11"/>
-      <c r="C68" s="6" t="s">
+      <c r="A68" s="26"/>
+      <c r="B68" s="30"/>
+      <c r="C68" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D68" s="7" t="s">
+      <c r="D68" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E68" s="20" t="s">
+      <c r="E68" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="6">
+      <c r="A69" s="3">
         <v>14</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="B69" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C69" s="6" t="s">
+      <c r="C69" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D69" s="7" t="s">
+      <c r="D69" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="E69" s="20" t="s">
+      <c r="E69" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="4">
+      <c r="A70" s="24">
         <v>15</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="B70" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="C70" s="6" t="s">
+      <c r="C70" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D70" s="7" t="s">
+      <c r="D70" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="E70" s="20" t="s">
+      <c r="E70" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="8"/>
-      <c r="B71" s="9"/>
-      <c r="C71" s="6" t="s">
+      <c r="A71" s="25"/>
+      <c r="B71" s="29"/>
+      <c r="C71" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D71" s="7" t="s">
+      <c r="D71" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="E71" s="20" t="s">
-        <v>10</v>
+      <c r="E71" s="9" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="10"/>
-      <c r="B72" s="11"/>
-      <c r="C72" s="6" t="s">
+      <c r="A72" s="26"/>
+      <c r="B72" s="30"/>
+      <c r="C72" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D72" s="7" t="s">
+      <c r="D72" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E72" s="20" t="s">
-        <v>10</v>
+      <c r="E72" s="9" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="4">
+      <c r="A73" s="24">
         <v>16</v>
       </c>
-      <c r="B73" s="5" t="s">
+      <c r="B73" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="C73" s="6" t="s">
+      <c r="C73" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D73" s="7" t="s">
+      <c r="D73" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="E73" s="20" t="s">
-        <v>18</v>
+      <c r="E73" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="10"/>
-      <c r="B74" s="11"/>
-      <c r="C74" s="6" t="s">
+      <c r="A74" s="26"/>
+      <c r="B74" s="30"/>
+      <c r="C74" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D74" s="7" t="s">
+      <c r="D74" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E74" s="20" t="s">
-        <v>18</v>
+      <c r="E74" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="23">
+      <c r="A75" s="10">
         <v>17</v>
       </c>
-      <c r="B75" s="23" t="s">
+      <c r="B75" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="C75" s="24" t="s">
+      <c r="C75" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="D75" s="25" t="s">
+      <c r="D75" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="E75" s="24" t="s">
+      <c r="E75" s="11" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="76" spans="1:5">
-      <c r="A76" s="26">
-        <v>18</v>
-      </c>
-      <c r="B76" s="26" t="s">
+      <c r="A76" s="13">
+        <v>18</v>
+      </c>
+      <c r="B76" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="C76" s="24" t="s">
+      <c r="C76" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="D76" s="25" t="s">
+      <c r="D76" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="E76" s="24" t="s">
+      <c r="E76" s="11" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2569,106 +1950,93 @@
       <c r="A77" s="27">
         <v>19</v>
       </c>
-      <c r="B77" s="28" t="s">
+      <c r="B77" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="C77" s="29" t="s">
+      <c r="C77" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D77" s="30" t="s">
+      <c r="D77" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="E77" s="29" t="s">
+      <c r="E77" s="14" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="27"/>
       <c r="B78" s="31"/>
-      <c r="C78" s="29" t="s">
+      <c r="C78" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D78" s="32" t="s">
+      <c r="D78" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="E78" s="29" t="s">
+      <c r="E78" s="14" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="27"/>
       <c r="B79" s="31"/>
-      <c r="C79" s="29" t="s">
+      <c r="C79" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D79" s="32" t="s">
+      <c r="D79" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="E79" s="29" t="s">
+      <c r="E79" s="14" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="27"/>
       <c r="B80" s="31"/>
-      <c r="C80" s="29" t="s">
+      <c r="C80" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D80" s="30" t="s">
+      <c r="D80" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="E80" s="29" t="s">
+      <c r="E80" s="14" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="27"/>
       <c r="B81" s="31"/>
-      <c r="C81" s="29" t="s">
+      <c r="C81" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D81" s="32" t="s">
+      <c r="D81" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="E81" s="29" t="s">
+      <c r="E81" s="14" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="27"/>
       <c r="B82" s="31"/>
-      <c r="C82" s="29" t="s">
+      <c r="C82" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="D82" s="30" t="s">
+      <c r="D82" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="E82" s="29" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="83" spans="4:4">
-      <c r="D83" s="33" t="s">
+      <c r="E82" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="D83" s="17" t="s">
         <v>109</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="A12:A21"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A37:A42"/>
-    <mergeCell ref="A43:A48"/>
-    <mergeCell ref="A49:A54"/>
-    <mergeCell ref="A55:A58"/>
-    <mergeCell ref="A59:A68"/>
-    <mergeCell ref="A70:A72"/>
+    <mergeCell ref="B77:B82"/>
+    <mergeCell ref="A1:E2"/>
     <mergeCell ref="A73:A74"/>
     <mergeCell ref="A77:A82"/>
     <mergeCell ref="B4:B6"/>
@@ -2685,10 +2053,22 @@
     <mergeCell ref="B59:B68"/>
     <mergeCell ref="B70:B72"/>
     <mergeCell ref="B73:B74"/>
-    <mergeCell ref="B77:B82"/>
-    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="A43:A48"/>
+    <mergeCell ref="A49:A54"/>
+    <mergeCell ref="A55:A58"/>
+    <mergeCell ref="A59:A68"/>
+    <mergeCell ref="A70:A72"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A37:A42"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A12:A21"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/CoA SIKANGMAS.xlsx
+++ b/CoA SIKANGMAS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\laravelVUESPA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26A1E85-443B-4BFE-A422-6FC96CFB04A2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B44B6EF0-9E10-4C93-989E-9357BD290C17}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1170" yWindow="1170" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="110">
   <si>
     <t>Chart of Account</t>
   </si>
@@ -512,7 +512,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -567,6 +567,33 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -585,32 +612,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -890,7 +893,7 @@
   <dimension ref="A1:G83"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A65" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E74" sqref="E74"/>
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -902,20 +905,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
     </row>
     <row r="2" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
     </row>
     <row r="3" spans="1:7" ht="30">
       <c r="A3" s="1" t="s">
@@ -938,10 +941,10 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="24">
+      <c r="A4" s="20">
         <v>1</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="23" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -955,8 +958,8 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="25"/>
-      <c r="B5" s="29"/>
+      <c r="A5" s="26"/>
+      <c r="B5" s="24"/>
       <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
@@ -968,8 +971,8 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="26"/>
-      <c r="B6" s="30"/>
+      <c r="A6" s="21"/>
+      <c r="B6" s="25"/>
       <c r="C6" s="3" t="s">
         <v>13</v>
       </c>
@@ -981,10 +984,10 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="24">
+      <c r="A7" s="20">
         <v>2</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="23" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -998,8 +1001,8 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="25"/>
-      <c r="B8" s="29"/>
+      <c r="A8" s="26"/>
+      <c r="B8" s="24"/>
       <c r="C8" s="3" t="s">
         <v>19</v>
       </c>
@@ -1011,8 +1014,8 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="25"/>
-      <c r="B9" s="29"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="24"/>
       <c r="C9" s="3" t="s">
         <v>21</v>
       </c>
@@ -1024,8 +1027,8 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="25"/>
-      <c r="B10" s="29"/>
+      <c r="A10" s="26"/>
+      <c r="B10" s="24"/>
       <c r="C10" s="3" t="s">
         <v>23</v>
       </c>
@@ -1037,8 +1040,8 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="26"/>
-      <c r="B11" s="30"/>
+      <c r="A11" s="21"/>
+      <c r="B11" s="25"/>
       <c r="C11" s="3" t="s">
         <v>25</v>
       </c>
@@ -1050,21 +1053,21 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="24">
+      <c r="A12" s="20">
         <v>3</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="20"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="29"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="25"/>
-      <c r="B13" s="29"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="24"/>
       <c r="C13" s="3" t="s">
         <v>29</v>
       </c>
@@ -1074,8 +1077,8 @@
       <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="25"/>
-      <c r="B14" s="29"/>
+      <c r="A14" s="26"/>
+      <c r="B14" s="24"/>
       <c r="C14" s="3" t="s">
         <v>31</v>
       </c>
@@ -1087,8 +1090,8 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="25"/>
-      <c r="B15" s="29"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="24"/>
       <c r="C15" s="3" t="s">
         <v>33</v>
       </c>
@@ -1100,17 +1103,17 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="27" customHeight="1">
-      <c r="A16" s="25"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="21" t="s">
+      <c r="A16" s="26"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="23"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="32"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="25"/>
-      <c r="B17" s="29"/>
+      <c r="A17" s="26"/>
+      <c r="B17" s="24"/>
       <c r="C17" s="3" t="s">
         <v>36</v>
       </c>
@@ -1122,8 +1125,8 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="25"/>
-      <c r="B18" s="29"/>
+      <c r="A18" s="26"/>
+      <c r="B18" s="24"/>
       <c r="C18" s="3" t="s">
         <v>38</v>
       </c>
@@ -1135,8 +1138,8 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="25"/>
-      <c r="B19" s="29"/>
+      <c r="A19" s="26"/>
+      <c r="B19" s="24"/>
       <c r="C19" s="3" t="s">
         <v>40</v>
       </c>
@@ -1148,8 +1151,8 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="25"/>
-      <c r="B20" s="29"/>
+      <c r="A20" s="26"/>
+      <c r="B20" s="24"/>
       <c r="C20" s="3" t="s">
         <v>42</v>
       </c>
@@ -1161,8 +1164,8 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="26"/>
-      <c r="B21" s="30"/>
+      <c r="A21" s="21"/>
+      <c r="B21" s="25"/>
       <c r="C21" s="3" t="s">
         <v>44</v>
       </c>
@@ -1174,10 +1177,10 @@
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="24">
+      <c r="A22" s="20">
         <v>4</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="20" t="s">
         <v>46</v>
       </c>
       <c r="C22" s="3" t="s">
@@ -1191,8 +1194,8 @@
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="25"/>
-      <c r="B23" s="25"/>
+      <c r="A23" s="26"/>
+      <c r="B23" s="26"/>
       <c r="C23" s="3" t="s">
         <v>48</v>
       </c>
@@ -1204,8 +1207,8 @@
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="25"/>
-      <c r="B24" s="25"/>
+      <c r="A24" s="26"/>
+      <c r="B24" s="26"/>
       <c r="C24" s="3" t="s">
         <v>36</v>
       </c>
@@ -1217,8 +1220,8 @@
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="25"/>
-      <c r="B25" s="25"/>
+      <c r="A25" s="26"/>
+      <c r="B25" s="26"/>
       <c r="C25" s="3" t="s">
         <v>40</v>
       </c>
@@ -1230,8 +1233,8 @@
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="25"/>
-      <c r="B26" s="25"/>
+      <c r="A26" s="26"/>
+      <c r="B26" s="26"/>
       <c r="C26" s="3" t="s">
         <v>44</v>
       </c>
@@ -1243,10 +1246,10 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="24">
+      <c r="A27" s="20">
         <v>5</v>
       </c>
-      <c r="B27" s="28" t="s">
+      <c r="B27" s="23" t="s">
         <v>49</v>
       </c>
       <c r="C27" s="3" t="s">
@@ -1260,8 +1263,8 @@
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="25"/>
-      <c r="B28" s="29"/>
+      <c r="A28" s="26"/>
+      <c r="B28" s="24"/>
       <c r="C28" s="3" t="s">
         <v>52</v>
       </c>
@@ -1273,8 +1276,8 @@
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="25"/>
-      <c r="B29" s="29"/>
+      <c r="A29" s="26"/>
+      <c r="B29" s="24"/>
       <c r="C29" s="3" t="s">
         <v>54</v>
       </c>
@@ -1286,8 +1289,8 @@
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="26"/>
-      <c r="B30" s="30"/>
+      <c r="A30" s="21"/>
+      <c r="B30" s="25"/>
       <c r="C30" s="3" t="s">
         <v>56</v>
       </c>
@@ -1314,10 +1317,10 @@
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="24">
+      <c r="A32" s="20">
         <v>7</v>
       </c>
-      <c r="B32" s="28" t="s">
+      <c r="B32" s="23" t="s">
         <v>60</v>
       </c>
       <c r="C32" s="3" t="s">
@@ -1331,8 +1334,8 @@
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="25"/>
-      <c r="B33" s="29"/>
+      <c r="A33" s="26"/>
+      <c r="B33" s="24"/>
       <c r="C33" s="3" t="s">
         <v>63</v>
       </c>
@@ -1344,8 +1347,8 @@
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="26"/>
-      <c r="B34" s="30"/>
+      <c r="A34" s="21"/>
+      <c r="B34" s="25"/>
       <c r="C34" s="3" t="s">
         <v>65</v>
       </c>
@@ -1357,10 +1360,10 @@
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="24">
+      <c r="A35" s="20">
         <v>8</v>
       </c>
-      <c r="B35" s="28" t="s">
+      <c r="B35" s="23" t="s">
         <v>67</v>
       </c>
       <c r="C35" s="3" t="s">
@@ -1374,8 +1377,8 @@
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="26"/>
-      <c r="B36" s="30"/>
+      <c r="A36" s="21"/>
+      <c r="B36" s="25"/>
       <c r="C36" s="3" t="s">
         <v>70</v>
       </c>
@@ -1387,10 +1390,10 @@
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="24">
+      <c r="A37" s="20">
         <v>9</v>
       </c>
-      <c r="B37" s="28" t="s">
+      <c r="B37" s="23" t="s">
         <v>72</v>
       </c>
       <c r="C37" s="3" t="s">
@@ -1404,8 +1407,8 @@
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="25"/>
-      <c r="B38" s="29"/>
+      <c r="A38" s="26"/>
+      <c r="B38" s="24"/>
       <c r="C38" s="3" t="s">
         <v>36</v>
       </c>
@@ -1417,8 +1420,8 @@
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="25"/>
-      <c r="B39" s="29"/>
+      <c r="A39" s="26"/>
+      <c r="B39" s="24"/>
       <c r="C39" s="3" t="s">
         <v>38</v>
       </c>
@@ -1430,8 +1433,8 @@
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="25"/>
-      <c r="B40" s="29"/>
+      <c r="A40" s="26"/>
+      <c r="B40" s="24"/>
       <c r="C40" s="3" t="s">
         <v>40</v>
       </c>
@@ -1443,8 +1446,8 @@
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="25"/>
-      <c r="B41" s="29"/>
+      <c r="A41" s="26"/>
+      <c r="B41" s="24"/>
       <c r="C41" s="3" t="s">
         <v>42</v>
       </c>
@@ -1456,8 +1459,8 @@
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="26"/>
-      <c r="B42" s="30"/>
+      <c r="A42" s="21"/>
+      <c r="B42" s="25"/>
       <c r="C42" s="3" t="s">
         <v>44</v>
       </c>
@@ -1469,10 +1472,10 @@
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="24">
-        <v>10</v>
-      </c>
-      <c r="B43" s="28" t="s">
+      <c r="A43" s="20">
+        <v>10</v>
+      </c>
+      <c r="B43" s="23" t="s">
         <v>75</v>
       </c>
       <c r="C43" s="3" t="s">
@@ -1486,8 +1489,8 @@
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="25"/>
-      <c r="B44" s="29"/>
+      <c r="A44" s="26"/>
+      <c r="B44" s="24"/>
       <c r="C44" s="3" t="s">
         <v>36</v>
       </c>
@@ -1499,8 +1502,8 @@
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="25"/>
-      <c r="B45" s="29"/>
+      <c r="A45" s="26"/>
+      <c r="B45" s="24"/>
       <c r="C45" s="3" t="s">
         <v>38</v>
       </c>
@@ -1512,8 +1515,8 @@
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="25"/>
-      <c r="B46" s="29"/>
+      <c r="A46" s="26"/>
+      <c r="B46" s="24"/>
       <c r="C46" s="3" t="s">
         <v>40</v>
       </c>
@@ -1525,8 +1528,8 @@
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="25"/>
-      <c r="B47" s="29"/>
+      <c r="A47" s="26"/>
+      <c r="B47" s="24"/>
       <c r="C47" s="3" t="s">
         <v>42</v>
       </c>
@@ -1538,8 +1541,8 @@
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="26"/>
-      <c r="B48" s="30"/>
+      <c r="A48" s="21"/>
+      <c r="B48" s="25"/>
       <c r="C48" s="3" t="s">
         <v>44</v>
       </c>
@@ -1551,10 +1554,10 @@
       </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="24">
+      <c r="A49" s="20">
         <v>11</v>
       </c>
-      <c r="B49" s="28" t="s">
+      <c r="B49" s="23" t="s">
         <v>76</v>
       </c>
       <c r="C49" s="3" t="s">
@@ -1568,8 +1571,8 @@
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="25"/>
-      <c r="B50" s="29"/>
+      <c r="A50" s="26"/>
+      <c r="B50" s="24"/>
       <c r="C50" s="3" t="s">
         <v>36</v>
       </c>
@@ -1581,8 +1584,8 @@
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="25"/>
-      <c r="B51" s="29"/>
+      <c r="A51" s="26"/>
+      <c r="B51" s="24"/>
       <c r="C51" s="3" t="s">
         <v>38</v>
       </c>
@@ -1594,8 +1597,8 @@
       </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="25"/>
-      <c r="B52" s="29"/>
+      <c r="A52" s="26"/>
+      <c r="B52" s="24"/>
       <c r="C52" s="3" t="s">
         <v>40</v>
       </c>
@@ -1607,8 +1610,8 @@
       </c>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="25"/>
-      <c r="B53" s="29"/>
+      <c r="A53" s="26"/>
+      <c r="B53" s="24"/>
       <c r="C53" s="3" t="s">
         <v>42</v>
       </c>
@@ -1620,8 +1623,8 @@
       </c>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="26"/>
-      <c r="B54" s="30"/>
+      <c r="A54" s="21"/>
+      <c r="B54" s="25"/>
       <c r="C54" s="3" t="s">
         <v>44</v>
       </c>
@@ -1633,10 +1636,10 @@
       </c>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="24">
+      <c r="A55" s="20">
         <v>12</v>
       </c>
-      <c r="B55" s="28" t="s">
+      <c r="B55" s="23" t="s">
         <v>77</v>
       </c>
       <c r="C55" s="3" t="s">
@@ -1650,8 +1653,8 @@
       </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="25"/>
-      <c r="B56" s="29"/>
+      <c r="A56" s="26"/>
+      <c r="B56" s="24"/>
       <c r="C56" s="3" t="s">
         <v>36</v>
       </c>
@@ -1663,8 +1666,8 @@
       </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="25"/>
-      <c r="B57" s="29"/>
+      <c r="A57" s="26"/>
+      <c r="B57" s="24"/>
       <c r="C57" s="3" t="s">
         <v>40</v>
       </c>
@@ -1676,8 +1679,8 @@
       </c>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="26"/>
-      <c r="B58" s="30"/>
+      <c r="A58" s="21"/>
+      <c r="B58" s="25"/>
       <c r="C58" s="3" t="s">
         <v>44</v>
       </c>
@@ -1689,10 +1692,10 @@
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="24">
+      <c r="A59" s="20">
         <v>13</v>
       </c>
-      <c r="B59" s="28" t="s">
+      <c r="B59" s="23" t="s">
         <v>78</v>
       </c>
       <c r="C59" s="3" t="s">
@@ -1706,8 +1709,8 @@
       </c>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="25"/>
-      <c r="B60" s="29"/>
+      <c r="A60" s="26"/>
+      <c r="B60" s="24"/>
       <c r="C60" s="3" t="s">
         <v>81</v>
       </c>
@@ -1719,8 +1722,8 @@
       </c>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="25"/>
-      <c r="B61" s="29"/>
+      <c r="A61" s="26"/>
+      <c r="B61" s="24"/>
       <c r="C61" s="3" t="s">
         <v>83</v>
       </c>
@@ -1732,8 +1735,8 @@
       </c>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="25"/>
-      <c r="B62" s="29"/>
+      <c r="A62" s="26"/>
+      <c r="B62" s="24"/>
       <c r="C62" s="3" t="s">
         <v>85</v>
       </c>
@@ -1745,8 +1748,8 @@
       </c>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="25"/>
-      <c r="B63" s="29"/>
+      <c r="A63" s="26"/>
+      <c r="B63" s="24"/>
       <c r="C63" s="3" t="s">
         <v>87</v>
       </c>
@@ -1758,8 +1761,8 @@
       </c>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="25"/>
-      <c r="B64" s="29"/>
+      <c r="A64" s="26"/>
+      <c r="B64" s="24"/>
       <c r="C64" s="3" t="s">
         <v>89</v>
       </c>
@@ -1771,8 +1774,8 @@
       </c>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="25"/>
-      <c r="B65" s="29"/>
+      <c r="A65" s="26"/>
+      <c r="B65" s="24"/>
       <c r="C65" s="3" t="s">
         <v>91</v>
       </c>
@@ -1784,8 +1787,8 @@
       </c>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="25"/>
-      <c r="B66" s="29"/>
+      <c r="A66" s="26"/>
+      <c r="B66" s="24"/>
       <c r="C66" s="3" t="s">
         <v>93</v>
       </c>
@@ -1797,8 +1800,8 @@
       </c>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="25"/>
-      <c r="B67" s="29"/>
+      <c r="A67" s="26"/>
+      <c r="B67" s="24"/>
       <c r="C67" s="3" t="s">
         <v>95</v>
       </c>
@@ -1810,8 +1813,8 @@
       </c>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="26"/>
-      <c r="B68" s="30"/>
+      <c r="A68" s="21"/>
+      <c r="B68" s="25"/>
       <c r="C68" s="3" t="s">
         <v>97</v>
       </c>
@@ -1840,10 +1843,10 @@
       </c>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="24">
+      <c r="A70" s="20">
         <v>15</v>
       </c>
-      <c r="B70" s="28" t="s">
+      <c r="B70" s="23" t="s">
         <v>101</v>
       </c>
       <c r="C70" s="3" t="s">
@@ -1857,8 +1860,8 @@
       </c>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="25"/>
-      <c r="B71" s="29"/>
+      <c r="A71" s="26"/>
+      <c r="B71" s="24"/>
       <c r="C71" s="3" t="s">
         <v>36</v>
       </c>
@@ -1870,10 +1873,10 @@
       </c>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="26"/>
-      <c r="B72" s="30"/>
-      <c r="C72" s="3" t="s">
-        <v>38</v>
+      <c r="A72" s="21"/>
+      <c r="B72" s="25"/>
+      <c r="C72" s="33">
+        <v>8.7500000000000008E-2</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>103</v>
@@ -1883,10 +1886,10 @@
       </c>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="24">
+      <c r="A73" s="20">
         <v>16</v>
       </c>
-      <c r="B73" s="28" t="s">
+      <c r="B73" s="23" t="s">
         <v>104</v>
       </c>
       <c r="C73" s="3" t="s">
@@ -1900,10 +1903,10 @@
       </c>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="26"/>
-      <c r="B74" s="30"/>
-      <c r="C74" s="3" t="s">
-        <v>38</v>
+      <c r="A74" s="21"/>
+      <c r="B74" s="25"/>
+      <c r="C74" s="33">
+        <v>8.7500000000000008E-2</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>103</v>
@@ -1947,10 +1950,10 @@
       </c>
     </row>
     <row r="77" spans="1:5">
-      <c r="A77" s="27">
+      <c r="A77" s="22">
         <v>19</v>
       </c>
-      <c r="B77" s="31" t="s">
+      <c r="B77" s="18" t="s">
         <v>108</v>
       </c>
       <c r="C77" s="14" t="s">
@@ -1964,8 +1967,8 @@
       </c>
     </row>
     <row r="78" spans="1:5">
-      <c r="A78" s="27"/>
-      <c r="B78" s="31"/>
+      <c r="A78" s="22"/>
+      <c r="B78" s="18"/>
       <c r="C78" s="14" t="s">
         <v>36</v>
       </c>
@@ -1977,8 +1980,8 @@
       </c>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="27"/>
-      <c r="B79" s="31"/>
+      <c r="A79" s="22"/>
+      <c r="B79" s="18"/>
       <c r="C79" s="14" t="s">
         <v>38</v>
       </c>
@@ -1990,8 +1993,8 @@
       </c>
     </row>
     <row r="80" spans="1:5">
-      <c r="A80" s="27"/>
-      <c r="B80" s="31"/>
+      <c r="A80" s="22"/>
+      <c r="B80" s="18"/>
       <c r="C80" s="14" t="s">
         <v>40</v>
       </c>
@@ -2003,8 +2006,8 @@
       </c>
     </row>
     <row r="81" spans="1:5">
-      <c r="A81" s="27"/>
-      <c r="B81" s="31"/>
+      <c r="A81" s="22"/>
+      <c r="B81" s="18"/>
       <c r="C81" s="14" t="s">
         <v>42</v>
       </c>
@@ -2016,8 +2019,8 @@
       </c>
     </row>
     <row r="82" spans="1:5">
-      <c r="A82" s="27"/>
-      <c r="B82" s="31"/>
+      <c r="A82" s="22"/>
+      <c r="B82" s="18"/>
       <c r="C82" s="14" t="s">
         <v>44</v>
       </c>
@@ -2035,6 +2038,23 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A12:A21"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A37:A42"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="A43:A48"/>
+    <mergeCell ref="A49:A54"/>
+    <mergeCell ref="A55:A58"/>
+    <mergeCell ref="A59:A68"/>
+    <mergeCell ref="A70:A72"/>
     <mergeCell ref="B77:B82"/>
     <mergeCell ref="A1:E2"/>
     <mergeCell ref="A73:A74"/>
@@ -2051,23 +2071,6 @@
     <mergeCell ref="B49:B54"/>
     <mergeCell ref="B55:B58"/>
     <mergeCell ref="B59:B68"/>
-    <mergeCell ref="B70:B72"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="A43:A48"/>
-    <mergeCell ref="A49:A54"/>
-    <mergeCell ref="A55:A58"/>
-    <mergeCell ref="A59:A68"/>
-    <mergeCell ref="A70:A72"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A37:A42"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="A12:A21"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
